--- a/Code/Results/Cases/Case_1_153/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_153/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.86172357145619</v>
+        <v>17.65992530191149</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.401858335755215</v>
+        <v>8.020924470889165</v>
       </c>
       <c r="E2">
-        <v>10.27988548890053</v>
+        <v>13.11632871265028</v>
       </c>
       <c r="F2">
-        <v>36.51024778146246</v>
+        <v>40.8134782372903</v>
       </c>
       <c r="G2">
-        <v>2.109919364541956</v>
+        <v>3.718827194612049</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16.91128006974998</v>
+        <v>14.16554261532486</v>
       </c>
       <c r="L2">
-        <v>6.785202532772002</v>
+        <v>9.831300910267329</v>
       </c>
       <c r="M2">
-        <v>11.08073877921335</v>
+        <v>16.58706324801927</v>
       </c>
       <c r="N2">
-        <v>16.87608931649758</v>
+        <v>24.13133141334478</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.30788485799429</v>
+        <v>17.59826587873509</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.476553713128872</v>
+        <v>8.036462109335512</v>
       </c>
       <c r="E3">
-        <v>10.05903197367845</v>
+        <v>13.05772177745514</v>
       </c>
       <c r="F3">
-        <v>35.18215775718293</v>
+        <v>40.59733323531989</v>
       </c>
       <c r="G3">
-        <v>2.119824181644642</v>
+        <v>3.722364706182779</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.71517673463608</v>
+        <v>13.91046660048228</v>
       </c>
       <c r="L3">
-        <v>6.583877766305414</v>
+        <v>9.824048139237986</v>
       </c>
       <c r="M3">
-        <v>10.81050031921341</v>
+        <v>16.58428121181482</v>
       </c>
       <c r="N3">
-        <v>16.98721042266653</v>
+        <v>24.1671897247264</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.96541301094271</v>
+        <v>17.56418070193732</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.52305258535892</v>
+        <v>8.046428708180949</v>
       </c>
       <c r="E4">
-        <v>9.922653985367456</v>
+        <v>13.02076690090516</v>
       </c>
       <c r="F4">
-        <v>34.37322689719976</v>
+        <v>40.47357619555765</v>
       </c>
       <c r="G4">
-        <v>2.126056189820939</v>
+        <v>3.724649971851191</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.94289094041113</v>
+        <v>13.75605059585088</v>
       </c>
       <c r="L4">
-        <v>6.461904715494706</v>
+        <v>9.821481016222485</v>
       </c>
       <c r="M4">
-        <v>10.64809613359368</v>
+        <v>16.58550094974628</v>
       </c>
       <c r="N4">
-        <v>17.06045163659636</v>
+        <v>24.19104768919717</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.82543332686514</v>
+        <v>17.55124999241869</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.542174223451555</v>
+        <v>8.050597692508742</v>
       </c>
       <c r="E5">
-        <v>9.866846002816317</v>
+        <v>13.00546386829334</v>
       </c>
       <c r="F5">
-        <v>34.04551649739137</v>
+        <v>40.42542975013981</v>
       </c>
       <c r="G5">
-        <v>2.128635675407169</v>
+        <v>3.725609810881213</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.61851724494084</v>
+        <v>13.69377099134552</v>
       </c>
       <c r="L5">
-        <v>6.412660607841785</v>
+        <v>9.82091025501113</v>
       </c>
       <c r="M5">
-        <v>10.58285697663486</v>
+        <v>16.58673559017334</v>
       </c>
       <c r="N5">
-        <v>17.09151905892171</v>
+        <v>24.2012327799564</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.80217035393227</v>
+        <v>17.54916107488245</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.545360177058431</v>
+        <v>8.0512964512177</v>
       </c>
       <c r="E6">
-        <v>9.857564043794111</v>
+        <v>13.00290810559118</v>
       </c>
       <c r="F6">
-        <v>33.99122661996555</v>
+        <v>40.41757401426891</v>
       </c>
       <c r="G6">
-        <v>2.129066464200895</v>
+        <v>3.725770920342412</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.5640678555911</v>
+        <v>13.68347123288239</v>
       </c>
       <c r="L6">
-        <v>6.404512964577943</v>
+        <v>9.82084421762775</v>
       </c>
       <c r="M6">
-        <v>10.57208260664701</v>
+        <v>16.5869851825535</v>
       </c>
       <c r="N6">
-        <v>17.09675044539906</v>
+        <v>24.20295195389826</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.96352663175332</v>
+        <v>17.56400241704501</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.523309749148869</v>
+        <v>8.04648449688119</v>
       </c>
       <c r="E7">
-        <v>9.921902329130361</v>
+        <v>13.02056150482379</v>
       </c>
       <c r="F7">
-        <v>34.3687990278942</v>
+        <v>40.47291758048351</v>
       </c>
       <c r="G7">
-        <v>2.126090813511513</v>
+        <v>3.724662800740326</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.93855561711271</v>
+        <v>13.75520793309046</v>
       </c>
       <c r="L7">
-        <v>6.461238660130589</v>
+        <v>9.821471392796472</v>
       </c>
       <c r="M7">
-        <v>10.64721240711801</v>
+        <v>16.58551461256742</v>
       </c>
       <c r="N7">
-        <v>17.06086572817759</v>
+        <v>24.19118317533733</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.67136594277224</v>
+        <v>17.63788834326548</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.427489483991924</v>
+        <v>8.026193516799053</v>
       </c>
       <c r="E8">
-        <v>10.20387068906368</v>
+        <v>13.09632252678858</v>
       </c>
       <c r="F8">
-        <v>36.05113439700603</v>
+        <v>40.73711345699579</v>
       </c>
       <c r="G8">
-        <v>2.113304620861966</v>
+        <v>3.72002349315398</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>16.50663927849513</v>
+        <v>14.07719102307844</v>
       </c>
       <c r="L8">
-        <v>6.715472961402721</v>
+        <v>9.828409421914671</v>
       </c>
       <c r="M8">
-        <v>10.98686223669154</v>
+        <v>16.58549720519202</v>
       </c>
       <c r="N8">
-        <v>16.91333870107282</v>
+        <v>24.14331322984315</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.03329621762881</v>
+        <v>17.81222291131009</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.244003608768718</v>
+        <v>7.989773115788501</v>
       </c>
       <c r="E9">
-        <v>10.75275361327405</v>
+        <v>13.23718465553841</v>
       </c>
       <c r="F9">
-        <v>39.39121395730044</v>
+        <v>41.32464978319835</v>
       </c>
       <c r="G9">
-        <v>2.089322471146695</v>
+        <v>3.711819389360516</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>19.2877439504118</v>
+        <v>14.72200927057147</v>
       </c>
       <c r="L9">
-        <v>7.225156924936815</v>
+        <v>9.856922232985941</v>
       </c>
       <c r="M9">
-        <v>11.6785730419887</v>
+        <v>16.6086246367455</v>
       </c>
       <c r="N9">
-        <v>16.66578526357049</v>
+        <v>24.06405183769371</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.01043842909552</v>
+        <v>17.95751920730134</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.110972175208072</v>
+        <v>7.965050479929932</v>
       </c>
       <c r="E10">
-        <v>11.157038621255</v>
+        <v>13.33597357710753</v>
       </c>
       <c r="F10">
-        <v>41.85983473344951</v>
+        <v>41.7962677144971</v>
       </c>
       <c r="G10">
-        <v>2.072211774072351</v>
+        <v>3.706329887565656</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>21.16174850151075</v>
+        <v>15.19857555524722</v>
       </c>
       <c r="L10">
-        <v>7.60432224918601</v>
+        <v>9.886865478190778</v>
       </c>
       <c r="M10">
-        <v>12.19972838992988</v>
+        <v>16.63962538393956</v>
       </c>
       <c r="N10">
-        <v>16.51244808774188</v>
+        <v>24.01473394500875</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.44880856739752</v>
+        <v>18.02717826812204</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.050625217691116</v>
+        <v>7.95424144119725</v>
       </c>
       <c r="E11">
-        <v>11.34214985144393</v>
+        <v>13.37989322500058</v>
       </c>
       <c r="F11">
-        <v>42.98515695459803</v>
+        <v>42.0189259780097</v>
       </c>
       <c r="G11">
-        <v>2.06449889586038</v>
+        <v>3.703947977059321</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>21.97993871283564</v>
+        <v>15.4148981223927</v>
       </c>
       <c r="L11">
-        <v>7.777545782764552</v>
+        <v>9.90241506014805</v>
       </c>
       <c r="M11">
-        <v>12.43920625014931</v>
+        <v>16.656739944318</v>
       </c>
       <c r="N11">
-        <v>16.44968763162723</v>
+        <v>23.99423577991284</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.6138715643096</v>
+        <v>18.05405229901184</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.027779427177506</v>
+        <v>7.950210949618322</v>
       </c>
       <c r="E12">
-        <v>11.41251683885984</v>
+        <v>13.39637752454941</v>
       </c>
       <c r="F12">
-        <v>43.41164005793965</v>
+        <v>42.10435611849238</v>
       </c>
       <c r="G12">
-        <v>2.061584727162484</v>
+        <v>3.703062478895439</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>22.28505444004607</v>
+        <v>15.49665961166916</v>
       </c>
       <c r="L12">
-        <v>7.84323474934749</v>
+        <v>9.90857790755404</v>
       </c>
       <c r="M12">
-        <v>12.53021238690828</v>
+        <v>16.66365073410724</v>
       </c>
       <c r="N12">
-        <v>16.42700486157028</v>
+        <v>23.98675236385237</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.57836463053387</v>
+        <v>18.04824272580307</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.032699693451096</v>
+        <v>7.951076205223134</v>
       </c>
       <c r="E13">
-        <v>11.3973483501331</v>
+        <v>13.39283388604384</v>
       </c>
       <c r="F13">
-        <v>43.31977277153625</v>
+        <v>42.08590851658845</v>
       </c>
       <c r="G13">
-        <v>2.062212117922992</v>
+        <v>3.703252455404783</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>22.21954831282851</v>
+        <v>15.47905906631434</v>
       </c>
       <c r="L13">
-        <v>7.8290834238145</v>
+        <v>9.907238463337041</v>
       </c>
       <c r="M13">
-        <v>12.51059857305865</v>
+        <v>16.66214330865871</v>
       </c>
       <c r="N13">
-        <v>16.43184048367347</v>
+        <v>23.98835164731242</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.46240742914524</v>
+        <v>18.02937937571015</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.048745661059802</v>
+        <v>7.953908595867916</v>
       </c>
       <c r="E14">
-        <v>11.34793297399247</v>
+        <v>13.38125234929946</v>
       </c>
       <c r="F14">
-        <v>43.02023664978443</v>
+        <v>42.02593234595955</v>
       </c>
       <c r="G14">
-        <v>2.064259037038541</v>
+        <v>3.70387479688213</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>22.00513394046909</v>
+        <v>15.42162828702746</v>
       </c>
       <c r="L14">
-        <v>7.782948230537643</v>
+        <v>9.902916595335851</v>
       </c>
       <c r="M14">
-        <v>12.44668704400959</v>
+        <v>16.65729990371518</v>
       </c>
       <c r="N14">
-        <v>16.44779931725245</v>
+        <v>23.99361452566237</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.39125690127405</v>
+        <v>18.01788906843487</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.058574548601094</v>
+        <v>7.955651669564171</v>
       </c>
       <c r="E15">
-        <v>11.31770286264114</v>
+        <v>13.37413915109363</v>
       </c>
       <c r="F15">
-        <v>42.83680915718266</v>
+        <v>41.98933871487876</v>
       </c>
       <c r="G15">
-        <v>2.065513568777798</v>
+        <v>3.704258142209803</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>21.87319172964856</v>
+        <v>15.38642753520474</v>
       </c>
       <c r="L15">
-        <v>7.754700977111984</v>
+        <v>9.90030499644914</v>
       </c>
       <c r="M15">
-        <v>12.40758067061451</v>
+        <v>16.65438905817495</v>
       </c>
       <c r="N15">
-        <v>16.45771810383734</v>
+        <v>23.9968745064322</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.98166104963682</v>
+        <v>17.95303711237774</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.114917875016572</v>
+        <v>7.96576565704294</v>
       </c>
       <c r="E16">
-        <v>11.14497322765676</v>
+        <v>13.3330827625076</v>
       </c>
       <c r="F16">
-        <v>41.78633853020855</v>
+        <v>41.78187533444379</v>
       </c>
       <c r="G16">
-        <v>2.072716951405061</v>
+        <v>3.70648786249335</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>21.10760568820515</v>
+        <v>15.18442133513556</v>
       </c>
       <c r="L16">
-        <v>7.593015193330638</v>
+        <v>9.885887851460401</v>
       </c>
       <c r="M16">
-        <v>12.1841239486725</v>
+        <v>16.63856724808725</v>
       </c>
       <c r="N16">
-        <v>16.51669677411671</v>
+        <v>24.01611254579517</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.72876742595287</v>
+        <v>17.91415349985963</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.149513505264298</v>
+        <v>7.9720821184684</v>
       </c>
       <c r="E17">
-        <v>11.03938048624349</v>
+        <v>13.30763444742165</v>
       </c>
       <c r="F17">
-        <v>41.14249105448744</v>
+        <v>41.65664528215967</v>
       </c>
       <c r="G17">
-        <v>2.077151668217097</v>
+        <v>3.707885181879818</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>20.62930567679621</v>
+        <v>15.0603131945544</v>
       </c>
       <c r="L17">
-        <v>7.494002950834977</v>
+        <v>9.877535423212629</v>
       </c>
       <c r="M17">
-        <v>12.0476348988873</v>
+        <v>16.62963035159</v>
       </c>
       <c r="N17">
-        <v>16.55472172189106</v>
+        <v>24.02841071994871</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.58273375688773</v>
+        <v>17.89212510014787</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.169429103761235</v>
+        <v>7.975756365559164</v>
       </c>
       <c r="E18">
-        <v>10.97875259262659</v>
+        <v>13.29290127640554</v>
       </c>
       <c r="F18">
-        <v>40.77238133916654</v>
+        <v>41.58538358947834</v>
       </c>
       <c r="G18">
-        <v>2.079709312249218</v>
+        <v>3.708699740701884</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>20.35095709908257</v>
+        <v>14.98889026396233</v>
       </c>
       <c r="L18">
-        <v>7.437123526244648</v>
+        <v>9.872913004179077</v>
       </c>
       <c r="M18">
-        <v>11.96935688403337</v>
+        <v>16.6247738219082</v>
       </c>
       <c r="N18">
-        <v>16.57724573370218</v>
+        <v>24.03566658700933</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.53319247838923</v>
+        <v>17.88472493926403</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.176175660638072</v>
+        <v>7.977007483602813</v>
       </c>
       <c r="E19">
-        <v>10.9582405856868</v>
+        <v>13.28789640820069</v>
       </c>
       <c r="F19">
-        <v>40.64710624785271</v>
+        <v>41.56138896783393</v>
       </c>
       <c r="G19">
-        <v>2.080576578567665</v>
+        <v>3.708977404164868</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>20.25614976575349</v>
+        <v>14.96470368478576</v>
       </c>
       <c r="L19">
-        <v>7.417877686596435</v>
+        <v>9.871379214013674</v>
       </c>
       <c r="M19">
-        <v>11.9428931780575</v>
+        <v>16.62317831039424</v>
       </c>
       <c r="N19">
-        <v>16.58498193070243</v>
+        <v>24.03815459748149</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.75574848013656</v>
+        <v>17.91825802645606</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.14582909961804</v>
+        <v>7.971405459631488</v>
       </c>
       <c r="E20">
-        <v>11.05060936583726</v>
+        <v>13.31035340003726</v>
       </c>
       <c r="F20">
-        <v>41.21100769421271</v>
+        <v>41.66989719667355</v>
       </c>
       <c r="G20">
-        <v>2.07667889483881</v>
+        <v>3.707735311841196</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>20.68055566523621</v>
+        <v>15.07352942318822</v>
       </c>
       <c r="L20">
-        <v>7.504535877597372</v>
+        <v>9.878405769470586</v>
       </c>
       <c r="M20">
-        <v>12.06214112153291</v>
+        <v>16.63055235644277</v>
       </c>
       <c r="N20">
-        <v>16.55060577936597</v>
+        <v>24.02708269083336</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.49649264761083</v>
+        <v>18.03490668408837</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.044032548704911</v>
+        <v>7.953074955498085</v>
       </c>
       <c r="E21">
-        <v>11.36243930372418</v>
+        <v>13.38465812373666</v>
       </c>
       <c r="F21">
-        <v>43.10820773436478</v>
+        <v>42.04351899219343</v>
       </c>
       <c r="G21">
-        <v>2.063657661311256</v>
+        <v>3.703691553638604</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>22.06823876239054</v>
+        <v>15.43850198905788</v>
       </c>
       <c r="L21">
-        <v>7.79649678779725</v>
+        <v>9.904178604368658</v>
       </c>
       <c r="M21">
-        <v>12.46545083311094</v>
+        <v>16.65871089015656</v>
       </c>
       <c r="N21">
-        <v>16.44308175492185</v>
+        <v>23.9920611220087</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.97513580817344</v>
+        <v>18.11402408170125</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.977530377188188</v>
+        <v>7.941460013968896</v>
       </c>
       <c r="E22">
-        <v>11.56786559135557</v>
+        <v>13.43236283072609</v>
       </c>
       <c r="F22">
-        <v>44.35022940358457</v>
+        <v>42.29417133373933</v>
       </c>
       <c r="G22">
-        <v>2.055183581784747</v>
+        <v>3.701144734257809</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>22.94780395821697</v>
+        <v>15.67609041991278</v>
       </c>
       <c r="L22">
-        <v>7.987853287972049</v>
+        <v>9.922621519808825</v>
       </c>
       <c r="M22">
-        <v>12.73090557783094</v>
+        <v>16.67961801572945</v>
       </c>
       <c r="N22">
-        <v>16.37916587539315</v>
+        <v>23.97079766535857</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.72018756116637</v>
+        <v>18.07153977393441</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.013027472152602</v>
+        <v>7.947625798858011</v>
       </c>
       <c r="E23">
-        <v>11.45804041070714</v>
+        <v>13.40698056235513</v>
       </c>
       <c r="F23">
-        <v>43.687122743274</v>
+        <v>42.15981958905218</v>
       </c>
       <c r="G23">
-        <v>2.059704382541222</v>
+        <v>3.702495267356639</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>22.48078959082402</v>
+        <v>15.54939912614882</v>
       </c>
       <c r="L23">
-        <v>7.885674745864265</v>
+        <v>9.912632861921473</v>
       </c>
       <c r="M23">
-        <v>12.58906142952409</v>
+        <v>16.66823155084776</v>
       </c>
       <c r="N23">
-        <v>16.4126690457041</v>
+        <v>23.98199757365515</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.74355233990886</v>
+        <v>17.91640135231762</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.147494736727191</v>
+        <v>7.971711243648715</v>
       </c>
       <c r="E24">
-        <v>11.04553255108257</v>
+        <v>13.30912448115117</v>
       </c>
       <c r="F24">
-        <v>41.1800311755924</v>
+        <v>41.66390371344575</v>
       </c>
       <c r="G24">
-        <v>2.076892610287835</v>
+        <v>3.707803033124173</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>20.65739605073547</v>
+        <v>15.06755458223241</v>
       </c>
       <c r="L24">
-        <v>7.499773803110196</v>
+        <v>9.878011726592888</v>
       </c>
       <c r="M24">
-        <v>12.05558226024252</v>
+        <v>16.6301346412416</v>
       </c>
       <c r="N24">
-        <v>16.55246453775334</v>
+        <v>24.02768251501747</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.66853142703681</v>
+        <v>17.76198066449103</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.293260367116368</v>
+        <v>7.999266992548979</v>
       </c>
       <c r="E25">
-        <v>10.60437473073711</v>
+        <v>13.19990310304972</v>
       </c>
       <c r="F25">
-        <v>38.48452619728773</v>
+        <v>41.15850447990817</v>
       </c>
       <c r="G25">
-        <v>2.095708658518654</v>
+        <v>3.71394384776582</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>18.56586987359126</v>
+        <v>14.54669363785277</v>
       </c>
       <c r="L25">
-        <v>7.086322473655062</v>
+        <v>9.847621308953348</v>
       </c>
       <c r="M25">
-        <v>11.48899996846473</v>
+        <v>16.59989854763121</v>
       </c>
       <c r="N25">
-        <v>16.72798893307757</v>
+        <v>24.08392909709781</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_153/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_153/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.65992530191149</v>
+        <v>13.86172357145615</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.020924470889165</v>
+        <v>5.401858335755019</v>
       </c>
       <c r="E2">
-        <v>13.11632871265028</v>
+        <v>10.2798854889006</v>
       </c>
       <c r="F2">
-        <v>40.8134782372903</v>
+        <v>36.51024778146235</v>
       </c>
       <c r="G2">
-        <v>3.718827194612049</v>
+        <v>2.10991936454182</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.16554261532486</v>
+        <v>16.91128006975002</v>
       </c>
       <c r="L2">
-        <v>9.831300910267329</v>
+        <v>6.785202532772002</v>
       </c>
       <c r="M2">
-        <v>16.58706324801927</v>
+        <v>11.08073877921334</v>
       </c>
       <c r="N2">
-        <v>24.13133141334478</v>
+        <v>16.8760893164975</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.59826587873509</v>
+        <v>13.30788485799431</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.036462109335512</v>
+        <v>5.476553713129004</v>
       </c>
       <c r="E3">
-        <v>13.05772177745514</v>
+        <v>10.05903197367852</v>
       </c>
       <c r="F3">
-        <v>40.59733323531989</v>
+        <v>35.18215775718285</v>
       </c>
       <c r="G3">
-        <v>3.722364706182779</v>
+        <v>2.119824181644641</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.91046660048228</v>
+        <v>15.71517673463611</v>
       </c>
       <c r="L3">
-        <v>9.824048139237986</v>
+        <v>6.583877766305431</v>
       </c>
       <c r="M3">
-        <v>16.58428121181482</v>
+        <v>10.81050031921341</v>
       </c>
       <c r="N3">
-        <v>24.1671897247264</v>
+        <v>16.98721042266645</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.56418070193732</v>
+        <v>12.96541301094275</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.046428708180949</v>
+        <v>5.523052585358985</v>
       </c>
       <c r="E4">
-        <v>13.02076690090516</v>
+        <v>9.922653985367596</v>
       </c>
       <c r="F4">
-        <v>40.47357619555765</v>
+        <v>34.37322689719981</v>
       </c>
       <c r="G4">
-        <v>3.724649971851191</v>
+        <v>2.126056189820674</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.75605059585088</v>
+        <v>14.94289094041111</v>
       </c>
       <c r="L4">
-        <v>9.821481016222485</v>
+        <v>6.461904715494759</v>
       </c>
       <c r="M4">
-        <v>16.58550094974628</v>
+        <v>10.64809613359375</v>
       </c>
       <c r="N4">
-        <v>24.19104768919717</v>
+        <v>17.06045163659639</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.55124999241869</v>
+        <v>12.82543332686514</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.050597692508742</v>
+        <v>5.542174223451426</v>
       </c>
       <c r="E5">
-        <v>13.00546386829334</v>
+        <v>9.866846002816313</v>
       </c>
       <c r="F5">
-        <v>40.42542975013981</v>
+        <v>34.04551649739149</v>
       </c>
       <c r="G5">
-        <v>3.725609810881213</v>
+        <v>2.128635675407304</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.69377099134552</v>
+        <v>14.61851724494077</v>
       </c>
       <c r="L5">
-        <v>9.82091025501113</v>
+        <v>6.412660607841842</v>
       </c>
       <c r="M5">
-        <v>16.58673559017334</v>
+        <v>10.5828569766349</v>
       </c>
       <c r="N5">
-        <v>24.2012327799564</v>
+        <v>17.09151905892171</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.54916107488245</v>
+        <v>12.8021703539322</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.0512964512177</v>
+        <v>5.545360177058431</v>
       </c>
       <c r="E6">
-        <v>13.00290810559118</v>
+        <v>9.857564043794181</v>
       </c>
       <c r="F6">
-        <v>40.41757401426891</v>
+        <v>33.99122661996548</v>
       </c>
       <c r="G6">
-        <v>3.725770920342412</v>
+        <v>2.129066464200764</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.68347123288239</v>
+        <v>14.56406785559115</v>
       </c>
       <c r="L6">
-        <v>9.82084421762775</v>
+        <v>6.404512964577956</v>
       </c>
       <c r="M6">
-        <v>16.5869851825535</v>
+        <v>10.57208260664698</v>
       </c>
       <c r="N6">
-        <v>24.20295195389826</v>
+        <v>17.09675044539905</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.56400241704501</v>
+        <v>12.9635266317534</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.04648449688119</v>
+        <v>5.523309749148937</v>
       </c>
       <c r="E7">
-        <v>13.02056150482379</v>
+        <v>9.921902329130356</v>
       </c>
       <c r="F7">
-        <v>40.47291758048351</v>
+        <v>34.36879902789425</v>
       </c>
       <c r="G7">
-        <v>3.724662800740326</v>
+        <v>2.126090813511779</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.75520793309046</v>
+        <v>14.93855561711269</v>
       </c>
       <c r="L7">
-        <v>9.821471392796472</v>
+        <v>6.461238660130587</v>
       </c>
       <c r="M7">
-        <v>16.58551461256742</v>
+        <v>10.64721240711803</v>
       </c>
       <c r="N7">
-        <v>24.19118317533733</v>
+        <v>17.06086572817762</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.63788834326548</v>
+        <v>13.67136594277219</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.026193516799053</v>
+        <v>5.427489483991983</v>
       </c>
       <c r="E8">
-        <v>13.09632252678858</v>
+        <v>10.20387068906367</v>
       </c>
       <c r="F8">
-        <v>40.73711345699579</v>
+        <v>36.05113439700592</v>
       </c>
       <c r="G8">
-        <v>3.72002349315398</v>
+        <v>2.11330462086183</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.07719102307844</v>
+        <v>16.50663927849515</v>
       </c>
       <c r="L8">
-        <v>9.828409421914671</v>
+        <v>6.715472961402713</v>
       </c>
       <c r="M8">
-        <v>16.58549720519202</v>
+        <v>10.9868622366915</v>
       </c>
       <c r="N8">
-        <v>24.14331322984315</v>
+        <v>16.91333870107276</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.81222291131009</v>
+        <v>15.03329621762879</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.989773115788501</v>
+        <v>5.244003608768779</v>
       </c>
       <c r="E9">
-        <v>13.23718465553841</v>
+        <v>10.75275361327418</v>
       </c>
       <c r="F9">
-        <v>41.32464978319835</v>
+        <v>39.39121395730039</v>
       </c>
       <c r="G9">
-        <v>3.711819389360516</v>
+        <v>2.0893224711467</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.72200927057147</v>
+        <v>19.28774395041184</v>
       </c>
       <c r="L9">
-        <v>9.856922232985941</v>
+        <v>7.225156924936798</v>
       </c>
       <c r="M9">
-        <v>16.6086246367455</v>
+        <v>11.6785730419887</v>
       </c>
       <c r="N9">
-        <v>24.06405183769371</v>
+        <v>16.66578526357049</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.95751920730134</v>
+        <v>16.01043842909559</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.965050479929932</v>
+        <v>5.110972175208072</v>
       </c>
       <c r="E10">
-        <v>13.33597357710753</v>
+        <v>11.15703862125508</v>
       </c>
       <c r="F10">
-        <v>41.7962677144971</v>
+        <v>41.85983473344953</v>
       </c>
       <c r="G10">
-        <v>3.706329887565656</v>
+        <v>2.072211774072215</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.19857555524722</v>
+        <v>21.16174850151075</v>
       </c>
       <c r="L10">
-        <v>9.886865478190778</v>
+        <v>7.604322249185976</v>
       </c>
       <c r="M10">
-        <v>16.63962538393956</v>
+        <v>12.19972838992987</v>
       </c>
       <c r="N10">
-        <v>24.01473394500875</v>
+        <v>16.51244808774189</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.02717826812204</v>
+        <v>16.4488085673975</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.95424144119725</v>
+        <v>5.050625217691119</v>
       </c>
       <c r="E11">
-        <v>13.37989322500058</v>
+        <v>11.34214985144393</v>
       </c>
       <c r="F11">
-        <v>42.0189259780097</v>
+        <v>42.98515695459801</v>
       </c>
       <c r="G11">
-        <v>3.703947977059321</v>
+        <v>2.064498895860649</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.4148981223927</v>
+        <v>21.97993871283565</v>
       </c>
       <c r="L11">
-        <v>9.90241506014805</v>
+        <v>7.777545782764557</v>
       </c>
       <c r="M11">
-        <v>16.656739944318</v>
+        <v>12.4392062501493</v>
       </c>
       <c r="N11">
-        <v>23.99423577991284</v>
+        <v>16.44968763162719</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.05405229901184</v>
+        <v>16.61387156430961</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.950210949618322</v>
+        <v>5.027779427177574</v>
       </c>
       <c r="E12">
-        <v>13.39637752454941</v>
+        <v>11.41251683885985</v>
       </c>
       <c r="F12">
-        <v>42.10435611849238</v>
+        <v>43.41164005793966</v>
       </c>
       <c r="G12">
-        <v>3.703062478895439</v>
+        <v>2.061584727162748</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.49665961166916</v>
+        <v>22.28505444004616</v>
       </c>
       <c r="L12">
-        <v>9.90857790755404</v>
+        <v>7.843234749347432</v>
       </c>
       <c r="M12">
-        <v>16.66365073410724</v>
+        <v>12.53021238690825</v>
       </c>
       <c r="N12">
-        <v>23.98675236385237</v>
+        <v>16.42700486157024</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.04824272580307</v>
+        <v>16.57836463053388</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.951076205223134</v>
+        <v>5.032699693451096</v>
       </c>
       <c r="E13">
-        <v>13.39283388604384</v>
+        <v>11.39734835013305</v>
       </c>
       <c r="F13">
-        <v>42.08590851658845</v>
+        <v>43.31977277153632</v>
       </c>
       <c r="G13">
-        <v>3.703252455404783</v>
+        <v>2.062212117922861</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.47905906631434</v>
+        <v>22.21954831282855</v>
       </c>
       <c r="L13">
-        <v>9.907238463337041</v>
+        <v>7.829083423814458</v>
       </c>
       <c r="M13">
-        <v>16.66214330865871</v>
+        <v>12.51059857305862</v>
       </c>
       <c r="N13">
-        <v>23.98835164731242</v>
+        <v>16.43184048367346</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.02937937571015</v>
+        <v>16.4624074291452</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.953908595867916</v>
+        <v>5.048745661059809</v>
       </c>
       <c r="E14">
-        <v>13.38125234929946</v>
+        <v>11.34793297399234</v>
       </c>
       <c r="F14">
-        <v>42.02593234595955</v>
+        <v>43.02023664978439</v>
       </c>
       <c r="G14">
-        <v>3.70387479688213</v>
+        <v>2.064259037038541</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.42162828702746</v>
+        <v>22.00513394046908</v>
       </c>
       <c r="L14">
-        <v>9.902916595335851</v>
+        <v>7.782948230537638</v>
       </c>
       <c r="M14">
-        <v>16.65729990371518</v>
+        <v>12.44668704400955</v>
       </c>
       <c r="N14">
-        <v>23.99361452566237</v>
+        <v>16.44779931725232</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.01788906843487</v>
+        <v>16.39125690127408</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.955651669564171</v>
+        <v>5.05857454860104</v>
       </c>
       <c r="E15">
-        <v>13.37413915109363</v>
+        <v>11.3177028626412</v>
       </c>
       <c r="F15">
-        <v>41.98933871487876</v>
+        <v>42.83680915718266</v>
       </c>
       <c r="G15">
-        <v>3.704258142209803</v>
+        <v>2.065513568777928</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.38642753520474</v>
+        <v>21.87319172964856</v>
       </c>
       <c r="L15">
-        <v>9.90030499644914</v>
+        <v>7.754700977111982</v>
       </c>
       <c r="M15">
-        <v>16.65438905817495</v>
+        <v>12.4075806706145</v>
       </c>
       <c r="N15">
-        <v>23.9968745064322</v>
+        <v>16.45771810383744</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.95303711237774</v>
+        <v>15.98166104963685</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.96576565704294</v>
+        <v>5.114917875016697</v>
       </c>
       <c r="E16">
-        <v>13.3330827625076</v>
+        <v>11.14497322765676</v>
       </c>
       <c r="F16">
-        <v>41.78187533444379</v>
+        <v>41.78633853020853</v>
       </c>
       <c r="G16">
-        <v>3.70648786249335</v>
+        <v>2.07271695140493</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.18442133513556</v>
+        <v>21.10760568820512</v>
       </c>
       <c r="L16">
-        <v>9.885887851460401</v>
+        <v>7.593015193330626</v>
       </c>
       <c r="M16">
-        <v>16.63856724808725</v>
+        <v>12.1841239486725</v>
       </c>
       <c r="N16">
-        <v>24.01611254579517</v>
+        <v>16.51669677411676</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.91415349985963</v>
+        <v>15.72876742595286</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.9720821184684</v>
+        <v>5.149513505264296</v>
       </c>
       <c r="E17">
-        <v>13.30763444742165</v>
+        <v>11.03938048624349</v>
       </c>
       <c r="F17">
-        <v>41.65664528215967</v>
+        <v>41.14249105448744</v>
       </c>
       <c r="G17">
-        <v>3.707885181879818</v>
+        <v>2.077151668217226</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.0603131945544</v>
+        <v>20.62930567679621</v>
       </c>
       <c r="L17">
-        <v>9.877535423212629</v>
+        <v>7.494002950835001</v>
       </c>
       <c r="M17">
-        <v>16.62963035159</v>
+        <v>12.04763489888734</v>
       </c>
       <c r="N17">
-        <v>24.02841071994871</v>
+        <v>16.55472172189101</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.89212510014787</v>
+        <v>15.58273375688771</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.975756365559164</v>
+        <v>5.169429103761301</v>
       </c>
       <c r="E18">
-        <v>13.29290127640554</v>
+        <v>10.97875259262672</v>
       </c>
       <c r="F18">
-        <v>41.58538358947834</v>
+        <v>40.77238133916653</v>
       </c>
       <c r="G18">
-        <v>3.708699740701884</v>
+        <v>2.079709312249087</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.98889026396233</v>
+        <v>20.35095709908262</v>
       </c>
       <c r="L18">
-        <v>9.872913004179077</v>
+        <v>7.437123526244658</v>
       </c>
       <c r="M18">
-        <v>16.6247738219082</v>
+        <v>11.96935688403338</v>
       </c>
       <c r="N18">
-        <v>24.03566658700933</v>
+        <v>16.57724573370219</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.88472493926403</v>
+        <v>15.53319247838924</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.977007483602813</v>
+        <v>5.176175660638142</v>
       </c>
       <c r="E19">
-        <v>13.28789640820069</v>
+        <v>10.95824058568712</v>
       </c>
       <c r="F19">
-        <v>41.56138896783393</v>
+        <v>40.64710624785268</v>
       </c>
       <c r="G19">
-        <v>3.708977404164868</v>
+        <v>2.0805765785678</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.96470368478576</v>
+        <v>20.25614976575355</v>
       </c>
       <c r="L19">
-        <v>9.871379214013674</v>
+        <v>7.417877686596476</v>
       </c>
       <c r="M19">
-        <v>16.62317831039424</v>
+        <v>11.94289317805755</v>
       </c>
       <c r="N19">
-        <v>24.03815459748149</v>
+        <v>16.58498193070243</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.91825802645606</v>
+        <v>15.75574848013656</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.971405459631488</v>
+        <v>5.145829099618099</v>
       </c>
       <c r="E20">
-        <v>13.31035340003726</v>
+        <v>11.05060936583726</v>
       </c>
       <c r="F20">
-        <v>41.66989719667355</v>
+        <v>41.21100769421267</v>
       </c>
       <c r="G20">
-        <v>3.707735311841196</v>
+        <v>2.07667889483881</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.07352942318822</v>
+        <v>20.68055566523621</v>
       </c>
       <c r="L20">
-        <v>9.878405769470586</v>
+        <v>7.504535877597355</v>
       </c>
       <c r="M20">
-        <v>16.63055235644277</v>
+        <v>12.06214112153291</v>
       </c>
       <c r="N20">
-        <v>24.02708269083336</v>
+        <v>16.55060577936597</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.03490668408837</v>
+        <v>16.49649264761079</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.953074955498085</v>
+        <v>5.044032548704681</v>
       </c>
       <c r="E21">
-        <v>13.38465812373666</v>
+        <v>11.36243930372418</v>
       </c>
       <c r="F21">
-        <v>42.04351899219343</v>
+        <v>43.10820773436473</v>
       </c>
       <c r="G21">
-        <v>3.703691553638604</v>
+        <v>2.063657661311246</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.43850198905788</v>
+        <v>22.06823876239064</v>
       </c>
       <c r="L21">
-        <v>9.904178604368658</v>
+        <v>7.796496787797287</v>
       </c>
       <c r="M21">
-        <v>16.65871089015656</v>
+        <v>12.46545083311091</v>
       </c>
       <c r="N21">
-        <v>23.9920611220087</v>
+        <v>16.4430817549218</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.11402408170125</v>
+        <v>16.97513580817343</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.941460013968896</v>
+        <v>4.977530377188432</v>
       </c>
       <c r="E22">
-        <v>13.43236283072609</v>
+        <v>11.56786559135558</v>
       </c>
       <c r="F22">
-        <v>42.29417133373933</v>
+        <v>44.3502294035846</v>
       </c>
       <c r="G22">
-        <v>3.701144734257809</v>
+        <v>2.05518358178475</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.67609041991278</v>
+        <v>22.94780395821699</v>
       </c>
       <c r="L22">
-        <v>9.922621519808825</v>
+        <v>7.987853287972056</v>
       </c>
       <c r="M22">
-        <v>16.67961801572945</v>
+        <v>12.73090557783093</v>
       </c>
       <c r="N22">
-        <v>23.97079766535857</v>
+        <v>16.3791658753931</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.07153977393441</v>
+        <v>16.72018756116637</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.947625798858011</v>
+        <v>5.013027472152483</v>
       </c>
       <c r="E23">
-        <v>13.40698056235513</v>
+        <v>11.45804041070707</v>
       </c>
       <c r="F23">
-        <v>42.15981958905218</v>
+        <v>43.68712274327407</v>
       </c>
       <c r="G23">
-        <v>3.702495267356639</v>
+        <v>2.059704382541359</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.54939912614882</v>
+        <v>22.48078959082404</v>
       </c>
       <c r="L23">
-        <v>9.912632861921473</v>
+        <v>7.88567474586427</v>
       </c>
       <c r="M23">
-        <v>16.66823155084776</v>
+        <v>12.58906142952408</v>
       </c>
       <c r="N23">
-        <v>23.98199757365515</v>
+        <v>16.41266904570409</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.91640135231762</v>
+        <v>15.7435523399089</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.971711243648715</v>
+        <v>5.147494736727321</v>
       </c>
       <c r="E24">
-        <v>13.30912448115117</v>
+        <v>11.04553255108256</v>
       </c>
       <c r="F24">
-        <v>41.66390371344575</v>
+        <v>41.18003117559237</v>
       </c>
       <c r="G24">
-        <v>3.707803033124173</v>
+        <v>2.076892610287834</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.06755458223241</v>
+        <v>20.65739605073548</v>
       </c>
       <c r="L24">
-        <v>9.878011726592888</v>
+        <v>7.499773803110179</v>
       </c>
       <c r="M24">
-        <v>16.6301346412416</v>
+        <v>12.05558226024252</v>
       </c>
       <c r="N24">
-        <v>24.02768251501747</v>
+        <v>16.55246453775326</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.76198066449103</v>
+        <v>14.66853142703678</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.999266992548979</v>
+        <v>5.293260367116362</v>
       </c>
       <c r="E25">
-        <v>13.19990310304972</v>
+        <v>10.60437473073737</v>
       </c>
       <c r="F25">
-        <v>41.15850447990817</v>
+        <v>38.48452619728771</v>
       </c>
       <c r="G25">
-        <v>3.71394384776582</v>
+        <v>2.095708658518654</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.54669363785277</v>
+        <v>18.56586987359135</v>
       </c>
       <c r="L25">
-        <v>9.847621308953348</v>
+        <v>7.08632247365507</v>
       </c>
       <c r="M25">
-        <v>16.59989854763121</v>
+        <v>11.48899996846474</v>
       </c>
       <c r="N25">
-        <v>24.08392909709781</v>
+        <v>16.72798893307753</v>
       </c>
       <c r="O25">
         <v>0</v>
